--- a/data/pca/factorExposure/factorExposure_2018-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.001535997742275308</v>
+        <v>-0.01103074835225563</v>
       </c>
       <c r="C2">
-        <v>-0.02625248736464647</v>
+        <v>0.02601314444285808</v>
       </c>
       <c r="D2">
-        <v>0.01893895271498744</v>
+        <v>0.02502422789337603</v>
       </c>
       <c r="E2">
-        <v>-0.007440646153293692</v>
+        <v>-0.02181024908875583</v>
       </c>
       <c r="F2">
-        <v>0.07989257463227351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.007737822558338151</v>
+      </c>
+      <c r="G2">
+        <v>-0.01604758440669622</v>
+      </c>
+      <c r="H2">
+        <v>0.04346840818714525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07524838491525437</v>
+        <v>-0.0542964186282192</v>
       </c>
       <c r="C3">
-        <v>-0.06730717897059391</v>
+        <v>0.07848416930999982</v>
       </c>
       <c r="D3">
-        <v>-0.006958752000638627</v>
+        <v>0.008072376093119144</v>
       </c>
       <c r="E3">
-        <v>-0.02143859891765261</v>
+        <v>-0.01660326851701315</v>
       </c>
       <c r="F3">
-        <v>0.2951365940943258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08075100040049123</v>
+      </c>
+      <c r="G3">
+        <v>-0.09659765717237086</v>
+      </c>
+      <c r="H3">
+        <v>0.100149521708716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03962570614198991</v>
+        <v>-0.03558821281851697</v>
       </c>
       <c r="C4">
-        <v>-0.02372360856785362</v>
+        <v>0.06270829317005171</v>
       </c>
       <c r="D4">
-        <v>0.02960398670202098</v>
+        <v>0.01909056304737803</v>
       </c>
       <c r="E4">
-        <v>0.04051738055319778</v>
+        <v>0.01674513571519207</v>
       </c>
       <c r="F4">
-        <v>0.05717836457872123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01910120228949827</v>
+      </c>
+      <c r="G4">
+        <v>-0.04682257226121355</v>
+      </c>
+      <c r="H4">
+        <v>0.05118690377124956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0300854610581885</v>
+        <v>-0.02120793530854524</v>
       </c>
       <c r="C6">
-        <v>-0.02157759783551861</v>
+        <v>0.06332293193844928</v>
       </c>
       <c r="D6">
-        <v>0.03838067088484415</v>
+        <v>0.01424373389049943</v>
       </c>
       <c r="E6">
-        <v>0.02677476658449406</v>
+        <v>0.004969699580528543</v>
       </c>
       <c r="F6">
-        <v>0.0208708829516983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02240070814084556</v>
+      </c>
+      <c r="G6">
+        <v>-0.02384884233743106</v>
+      </c>
+      <c r="H6">
+        <v>0.05270602942275967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04253149077721185</v>
+        <v>-0.008248702555595346</v>
       </c>
       <c r="C7">
-        <v>0.02106234235815798</v>
+        <v>0.03369886798088038</v>
       </c>
       <c r="D7">
-        <v>0.02237679068688279</v>
+        <v>0.01150499277304969</v>
       </c>
       <c r="E7">
-        <v>0.01429334691580609</v>
+        <v>0.0424372550513312</v>
       </c>
       <c r="F7">
-        <v>0.02729990415376319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008657119636580966</v>
+      </c>
+      <c r="G7">
+        <v>-0.01244997351750017</v>
+      </c>
+      <c r="H7">
+        <v>0.03329035951712767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01266110010863718</v>
+        <v>0.00366021076936446</v>
       </c>
       <c r="C8">
-        <v>-0.001807231323493436</v>
+        <v>0.01043175280144258</v>
       </c>
       <c r="D8">
-        <v>0.03605992565931369</v>
+        <v>0.002120797589629077</v>
       </c>
       <c r="E8">
-        <v>0.02996286730599068</v>
+        <v>0.008725098503252749</v>
       </c>
       <c r="F8">
-        <v>0.05143177372858557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.007899263127321487</v>
+      </c>
+      <c r="G8">
+        <v>-0.03263999905449497</v>
+      </c>
+      <c r="H8">
+        <v>0.02417678490969629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02750901447454298</v>
+        <v>-0.02040446829543734</v>
       </c>
       <c r="C9">
-        <v>-0.01425758880334364</v>
+        <v>0.04771264255705164</v>
       </c>
       <c r="D9">
-        <v>0.02920967522995976</v>
+        <v>0.01327827709650802</v>
       </c>
       <c r="E9">
-        <v>0.01435740059380936</v>
+        <v>0.004587348263247768</v>
       </c>
       <c r="F9">
-        <v>0.07245078127850013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.007218148544297125</v>
+      </c>
+      <c r="G9">
+        <v>-0.03539903471400558</v>
+      </c>
+      <c r="H9">
+        <v>0.04997540922280112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03767690793812698</v>
+        <v>-0.1359947748593625</v>
       </c>
       <c r="C10">
-        <v>-0.01031126647289643</v>
+        <v>-0.1377641929739005</v>
       </c>
       <c r="D10">
-        <v>-0.1465504290524773</v>
+        <v>-0.03063601556870438</v>
       </c>
       <c r="E10">
-        <v>-0.04712552770063885</v>
+        <v>-0.003890352204547305</v>
       </c>
       <c r="F10">
-        <v>0.04652801214957394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04989617949877305</v>
+      </c>
+      <c r="G10">
+        <v>-0.008248088540448343</v>
+      </c>
+      <c r="H10">
+        <v>-0.01197200100019469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02318656160010316</v>
+        <v>-0.01425917795161838</v>
       </c>
       <c r="C11">
-        <v>-0.02734339972862521</v>
+        <v>0.05011564834153558</v>
       </c>
       <c r="D11">
-        <v>0.0333596488515118</v>
+        <v>0.0005959461891691226</v>
       </c>
       <c r="E11">
-        <v>0.02398692644196386</v>
+        <v>-0.001527064077556085</v>
       </c>
       <c r="F11">
-        <v>0.02140424252477468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006924508542665474</v>
+      </c>
+      <c r="G11">
+        <v>-0.01451819020784325</v>
+      </c>
+      <c r="H11">
+        <v>0.04669071883355284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0354559401465525</v>
+        <v>-0.01770518622906139</v>
       </c>
       <c r="C12">
-        <v>-0.03032991612921458</v>
+        <v>0.0478844006604086</v>
       </c>
       <c r="D12">
-        <v>0.02696413768232775</v>
+        <v>0.004330822585262441</v>
       </c>
       <c r="E12">
-        <v>0.03274924344497294</v>
+        <v>0.0116193416994717</v>
       </c>
       <c r="F12">
-        <v>-0.003378992620928369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01112496356515044</v>
+      </c>
+      <c r="G12">
+        <v>-0.007607767650048748</v>
+      </c>
+      <c r="H12">
+        <v>0.01742822679520575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001408570497014215</v>
+        <v>-0.01509994110668727</v>
       </c>
       <c r="C13">
-        <v>-0.01835126436505614</v>
+        <v>0.02423473728806043</v>
       </c>
       <c r="D13">
-        <v>0.006929997467720511</v>
+        <v>0.02079394164875697</v>
       </c>
       <c r="E13">
-        <v>0.01063997131272228</v>
+        <v>-0.01644019246489395</v>
       </c>
       <c r="F13">
-        <v>0.06712413545690045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.005356125145376791</v>
+      </c>
+      <c r="G13">
+        <v>-0.04340350773078711</v>
+      </c>
+      <c r="H13">
+        <v>0.06610104543645187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02296766829595669</v>
+        <v>-0.007618180149285252</v>
       </c>
       <c r="C14">
-        <v>-0.001671457928990725</v>
+        <v>0.02041861551469213</v>
       </c>
       <c r="D14">
-        <v>0.0138692316122751</v>
+        <v>0.006575753971514742</v>
       </c>
       <c r="E14">
-        <v>0.01667975190007739</v>
+        <v>0.01479209796664922</v>
       </c>
       <c r="F14">
-        <v>0.03997641442007318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.00799127403355257</v>
+      </c>
+      <c r="G14">
+        <v>-0.02671917119591691</v>
+      </c>
+      <c r="H14">
+        <v>0.01433180565988342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02445504485169791</v>
+        <v>-0.01617337985119009</v>
       </c>
       <c r="C16">
-        <v>-0.02697665962837324</v>
+        <v>0.04364344221908992</v>
       </c>
       <c r="D16">
-        <v>0.03671537698344347</v>
+        <v>-0.0001950398420502604</v>
       </c>
       <c r="E16">
-        <v>0.0248396035153957</v>
+        <v>0.002566741362333951</v>
       </c>
       <c r="F16">
-        <v>0.02678834993924075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.00665066585980663</v>
+      </c>
+      <c r="G16">
+        <v>-0.01658666435462926</v>
+      </c>
+      <c r="H16">
+        <v>0.03558435403231572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02943813680792427</v>
+        <v>-0.01678530751435639</v>
       </c>
       <c r="C19">
-        <v>-0.02476714302452786</v>
+        <v>0.04363685808473208</v>
       </c>
       <c r="D19">
-        <v>0.03573572288071972</v>
+        <v>0.01180645099092245</v>
       </c>
       <c r="E19">
-        <v>0.04227566941527267</v>
+        <v>0.006433455542401565</v>
       </c>
       <c r="F19">
-        <v>0.06625442608475182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.006186191512450373</v>
+      </c>
+      <c r="G19">
+        <v>-0.05014543889659641</v>
+      </c>
+      <c r="H19">
+        <v>0.04759183761980314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003314146127008737</v>
+        <v>-0.003636772732683827</v>
       </c>
       <c r="C20">
-        <v>0.009621996077137634</v>
+        <v>0.02082299130740469</v>
       </c>
       <c r="D20">
-        <v>0.002555720264050103</v>
+        <v>0.01068276260651256</v>
       </c>
       <c r="E20">
-        <v>0.01670849459261762</v>
+        <v>0.002543428628129968</v>
       </c>
       <c r="F20">
-        <v>0.04199054200759757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01419519237923732</v>
+      </c>
+      <c r="G20">
+        <v>-0.03914622103920406</v>
+      </c>
+      <c r="H20">
+        <v>0.02628445244944929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02287539294563374</v>
+        <v>-0.01012964402909554</v>
       </c>
       <c r="C21">
-        <v>0.01098731014456164</v>
+        <v>0.01934475574787345</v>
       </c>
       <c r="D21">
-        <v>0.0249002098547755</v>
+        <v>0.01273144176674258</v>
       </c>
       <c r="E21">
-        <v>0.004604820162773541</v>
+        <v>0.01661231395433937</v>
       </c>
       <c r="F21">
-        <v>0.02254954468751565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01785350471848612</v>
+      </c>
+      <c r="G21">
+        <v>-0.02473733266827142</v>
+      </c>
+      <c r="H21">
+        <v>0.04727013422151528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02049411747100837</v>
+        <v>-0.009642145856598706</v>
       </c>
       <c r="C24">
-        <v>-0.02288960921922498</v>
+        <v>0.04172405360345749</v>
       </c>
       <c r="D24">
-        <v>0.01654773396940158</v>
+        <v>0.005361749955767911</v>
       </c>
       <c r="E24">
-        <v>0.02224317093703202</v>
+        <v>0.001959883624324111</v>
       </c>
       <c r="F24">
-        <v>0.02512575459199538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.009509373229787791</v>
+      </c>
+      <c r="G24">
+        <v>-0.007764987029364788</v>
+      </c>
+      <c r="H24">
+        <v>0.04179958333218457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02600224833288949</v>
+        <v>-0.02439966457708191</v>
       </c>
       <c r="C25">
-        <v>-0.02400379505381719</v>
+        <v>0.04947676716554508</v>
       </c>
       <c r="D25">
-        <v>0.02659961916306811</v>
+        <v>0.008396414663026147</v>
       </c>
       <c r="E25">
-        <v>0.01848719371131706</v>
+        <v>0.007417118763818077</v>
       </c>
       <c r="F25">
-        <v>0.02971131462304158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01392653882778766</v>
+      </c>
+      <c r="G25">
+        <v>-0.01674713580629912</v>
+      </c>
+      <c r="H25">
+        <v>0.03952978497691351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01146201914329989</v>
+        <v>-0.006611970236266022</v>
       </c>
       <c r="C26">
-        <v>-0.009577682318793267</v>
+        <v>0.005591557459395852</v>
       </c>
       <c r="D26">
-        <v>0.0133693751482277</v>
+        <v>0.02227071754356771</v>
       </c>
       <c r="E26">
-        <v>-0.007413103663077385</v>
+        <v>0.00272990712343954</v>
       </c>
       <c r="F26">
-        <v>0.04871367548849731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008614954899300968</v>
+      </c>
+      <c r="G26">
+        <v>-0.01209758557875221</v>
+      </c>
+      <c r="H26">
+        <v>0.01777569950381248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02455824588543132</v>
+        <v>-0.008906347773344987</v>
       </c>
       <c r="C27">
-        <v>-0.01703018482444662</v>
+        <v>0.009344723163193775</v>
       </c>
       <c r="D27">
-        <v>-0.001977528238452146</v>
+        <v>-0.001669405048202811</v>
       </c>
       <c r="E27">
-        <v>0.03246872539870857</v>
+        <v>0.006470755890967657</v>
       </c>
       <c r="F27">
-        <v>0.006910228147146597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0005011013943192837</v>
+      </c>
+      <c r="G27">
+        <v>-0.009674431088493488</v>
+      </c>
+      <c r="H27">
+        <v>-0.00913003050399314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07473624302728987</v>
+        <v>-0.1903535131307658</v>
       </c>
       <c r="C28">
-        <v>-0.02709805815309323</v>
+        <v>-0.1797038353919682</v>
       </c>
       <c r="D28">
-        <v>-0.2111076096516837</v>
+        <v>-0.02784697766272512</v>
       </c>
       <c r="E28">
-        <v>-0.08132444706249255</v>
+        <v>0.01064221055522514</v>
       </c>
       <c r="F28">
-        <v>0.04623745608738914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04656919659684489</v>
+      </c>
+      <c r="G28">
+        <v>0.001133466951993453</v>
+      </c>
+      <c r="H28">
+        <v>-0.01324414015707704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02391106637262366</v>
+        <v>-0.0124469347474175</v>
       </c>
       <c r="C29">
-        <v>-0.003225639351980771</v>
+        <v>0.01846548183060638</v>
       </c>
       <c r="D29">
-        <v>0.01500747141500802</v>
+        <v>0.005397036242674976</v>
       </c>
       <c r="E29">
-        <v>0.01705779992518141</v>
+        <v>0.01445145938068577</v>
       </c>
       <c r="F29">
-        <v>0.0379338330287668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.009419875976703736</v>
+      </c>
+      <c r="G29">
+        <v>-0.02557353026418414</v>
+      </c>
+      <c r="H29">
+        <v>0.007626667770746663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01886082169445738</v>
+        <v>-0.02310828068116888</v>
       </c>
       <c r="C30">
-        <v>-0.06847999013720477</v>
+        <v>0.08805855781967523</v>
       </c>
       <c r="D30">
-        <v>0.05372517428779754</v>
+        <v>0.02534215094577871</v>
       </c>
       <c r="E30">
-        <v>0.02474743415532183</v>
+        <v>-0.03236247515792776</v>
       </c>
       <c r="F30">
-        <v>0.08012017783214942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01108813002658645</v>
+      </c>
+      <c r="G30">
+        <v>-0.05011265074312272</v>
+      </c>
+      <c r="H30">
+        <v>0.07238947954411097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03958213713631238</v>
+        <v>-0.03902960173987222</v>
       </c>
       <c r="C31">
-        <v>-0.03966989925225545</v>
+        <v>0.03183851006474002</v>
       </c>
       <c r="D31">
-        <v>0.01618119074555671</v>
+        <v>-0.0002069225968607049</v>
       </c>
       <c r="E31">
-        <v>0.02096165212330768</v>
+        <v>0.002553205096936376</v>
       </c>
       <c r="F31">
-        <v>0.03436945588288923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.007532544617570908</v>
+      </c>
+      <c r="G31">
+        <v>-0.01180326354080634</v>
+      </c>
+      <c r="H31">
+        <v>0.004212663228637909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02337476384167611</v>
+        <v>-0.0008145673130474599</v>
       </c>
       <c r="C32">
-        <v>0.01189764715756856</v>
+        <v>0.01368682158445718</v>
       </c>
       <c r="D32">
-        <v>0.05109988857483468</v>
+        <v>-0.008097227973135898</v>
       </c>
       <c r="E32">
-        <v>0.04251759947289945</v>
+        <v>0.02885838763695897</v>
       </c>
       <c r="F32">
-        <v>0.03865175316519668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.007522532477053097</v>
+      </c>
+      <c r="G32">
+        <v>-0.05055560377014969</v>
+      </c>
+      <c r="H32">
+        <v>0.04887581732771559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02095959907998625</v>
+        <v>-0.01791670942842788</v>
       </c>
       <c r="C33">
-        <v>-0.0473637069397599</v>
+        <v>0.04850159769720518</v>
       </c>
       <c r="D33">
-        <v>0.0466389700672324</v>
+        <v>0.01187931984227862</v>
       </c>
       <c r="E33">
-        <v>0.009409710159345993</v>
+        <v>-0.02122426356737929</v>
       </c>
       <c r="F33">
-        <v>0.05472735462400578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01934858190514223</v>
+      </c>
+      <c r="G33">
+        <v>-0.02169788069066538</v>
+      </c>
+      <c r="H33">
+        <v>0.04589403994431263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02956022755983833</v>
+        <v>-0.02317426552223423</v>
       </c>
       <c r="C34">
-        <v>-0.02075682852582588</v>
+        <v>0.05057282354644642</v>
       </c>
       <c r="D34">
-        <v>0.03587768585904567</v>
+        <v>-0.007678988359887839</v>
       </c>
       <c r="E34">
-        <v>0.03049529347622103</v>
+        <v>0.01412854286554802</v>
       </c>
       <c r="F34">
-        <v>0.02237660901556128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01590655492425009</v>
+      </c>
+      <c r="G34">
+        <v>-0.01072179545671748</v>
+      </c>
+      <c r="H34">
+        <v>0.0325430810010478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01895995591751515</v>
+        <v>-0.01432301549728874</v>
       </c>
       <c r="C36">
-        <v>-0.004211479718785977</v>
+        <v>0.006348340131843325</v>
       </c>
       <c r="D36">
-        <v>0.005820787266186143</v>
+        <v>0.008812164734513959</v>
       </c>
       <c r="E36">
-        <v>0.01158429481736224</v>
+        <v>0.008015859878141201</v>
       </c>
       <c r="F36">
-        <v>0.02580586449655245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007562271326738633</v>
+      </c>
+      <c r="G36">
+        <v>-0.01084358246879736</v>
+      </c>
+      <c r="H36">
+        <v>0.0128418874947612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01141151374539148</v>
+        <v>-0.02666994651367825</v>
       </c>
       <c r="C38">
-        <v>-0.01118679886586304</v>
+        <v>0.02131890050413262</v>
       </c>
       <c r="D38">
-        <v>-0.001809814927294351</v>
+        <v>-0.01081500109071368</v>
       </c>
       <c r="E38">
-        <v>-0.02175131995050263</v>
+        <v>-0.0002031155472001057</v>
       </c>
       <c r="F38">
-        <v>0.04297138631285989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.002379545628393478</v>
+      </c>
+      <c r="G38">
+        <v>-0.01655841832784158</v>
+      </c>
+      <c r="H38">
+        <v>0.03497538025084881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01971031037045701</v>
+        <v>-0.002849651278680718</v>
       </c>
       <c r="C39">
-        <v>-0.02351093548500881</v>
+        <v>0.08713966568003642</v>
       </c>
       <c r="D39">
-        <v>0.05578526172259582</v>
+        <v>0.01216690036485715</v>
       </c>
       <c r="E39">
-        <v>0.0243925147771685</v>
+        <v>-0.006965983104350683</v>
       </c>
       <c r="F39">
-        <v>0.04310481398484302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.008268334624545973</v>
+      </c>
+      <c r="G39">
+        <v>-0.02354791762412772</v>
+      </c>
+      <c r="H39">
+        <v>0.07688566068021367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.002008439714777831</v>
+        <v>-0.02003699966949914</v>
       </c>
       <c r="C40">
-        <v>-0.04781202312079304</v>
+        <v>0.0308340421744701</v>
       </c>
       <c r="D40">
-        <v>0.01552171176173145</v>
+        <v>0.008574239902933415</v>
       </c>
       <c r="E40">
-        <v>0.0314524621975373</v>
+        <v>-0.02377930540530135</v>
       </c>
       <c r="F40">
-        <v>0.02913819635589034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02461502671579677</v>
+      </c>
+      <c r="G40">
+        <v>-0.01951350930152589</v>
+      </c>
+      <c r="H40">
+        <v>0.04657075172070132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008199738659860262</v>
+        <v>-0.01196064351497101</v>
       </c>
       <c r="C41">
-        <v>-0.0009095806639798159</v>
+        <v>-0.008106257587919417</v>
       </c>
       <c r="D41">
-        <v>0.004579935303181132</v>
+        <v>0.001619899501861311</v>
       </c>
       <c r="E41">
-        <v>-0.01354600270510578</v>
+        <v>0.00496748396877817</v>
       </c>
       <c r="F41">
-        <v>0.003573284617162859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006227625240302442</v>
+      </c>
+      <c r="G41">
+        <v>0.007178299476223721</v>
+      </c>
+      <c r="H41">
+        <v>-0.003424421360563219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.194780630858546</v>
+        <v>-0.08475279026580192</v>
       </c>
       <c r="C42">
-        <v>-0.280753852172852</v>
+        <v>0.2076255356652466</v>
       </c>
       <c r="D42">
-        <v>0.2777976679009338</v>
+        <v>0.1289212829310803</v>
       </c>
       <c r="E42">
-        <v>-0.8317723900322719</v>
+        <v>-0.184796766532574</v>
       </c>
       <c r="F42">
-        <v>-0.2723735525985759</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.527522298973614</v>
+      </c>
+      <c r="G42">
+        <v>0.7742090482706616</v>
+      </c>
+      <c r="H42">
+        <v>0.06094499685611149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009032031829044898</v>
+        <v>-0.01387031610460115</v>
       </c>
       <c r="C43">
-        <v>-0.00915059615502734</v>
+        <v>-0.006306142747385646</v>
       </c>
       <c r="D43">
-        <v>0.007666260339150932</v>
+        <v>0.002184653455264037</v>
       </c>
       <c r="E43">
-        <v>-0.00131318233194572</v>
+        <v>0.001390738372831584</v>
       </c>
       <c r="F43">
-        <v>0.02296437540841989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003921339992034661</v>
+      </c>
+      <c r="G43">
+        <v>0.006155710465138082</v>
+      </c>
+      <c r="H43">
+        <v>0.005723287648704512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02511470680951246</v>
+        <v>-0.008190725014986817</v>
       </c>
       <c r="C44">
-        <v>-0.0007076838802986438</v>
+        <v>0.04034609415269022</v>
       </c>
       <c r="D44">
-        <v>0.02676815468518806</v>
+        <v>0.004846129262284233</v>
       </c>
       <c r="E44">
-        <v>-0.001589287411983278</v>
+        <v>0.01097446366393988</v>
       </c>
       <c r="F44">
-        <v>0.08212061802225434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02350117574673816</v>
+      </c>
+      <c r="G44">
+        <v>-0.02277067780482435</v>
+      </c>
+      <c r="H44">
+        <v>0.05744382298641666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0166653624031084</v>
+        <v>-0.004119205353607746</v>
       </c>
       <c r="C46">
-        <v>-0.01287553688553097</v>
+        <v>0.01242998005493409</v>
       </c>
       <c r="D46">
-        <v>0.0462319705822439</v>
+        <v>0.01048089339483594</v>
       </c>
       <c r="E46">
-        <v>0.0218281171178348</v>
+        <v>0.003920401412786051</v>
       </c>
       <c r="F46">
-        <v>0.05469113631758424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01031976786874734</v>
+      </c>
+      <c r="G46">
+        <v>-0.01930510726296397</v>
+      </c>
+      <c r="H46">
+        <v>0.01199695364433258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0653665243767152</v>
+        <v>-0.0543803543341112</v>
       </c>
       <c r="C47">
-        <v>-0.0619944914961521</v>
+        <v>0.06806436284764646</v>
       </c>
       <c r="D47">
-        <v>0.007846445378466637</v>
+        <v>-0.008441350937536023</v>
       </c>
       <c r="E47">
-        <v>0.0356850469505932</v>
+        <v>0.009305964323900033</v>
       </c>
       <c r="F47">
-        <v>0.002739628111373391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002919967276264389</v>
+      </c>
+      <c r="G47">
+        <v>-0.00540737602654361</v>
+      </c>
+      <c r="H47">
+        <v>-0.03730869623199724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01512313573824253</v>
+        <v>-0.01362529593848445</v>
       </c>
       <c r="C48">
-        <v>-0.01312276781722138</v>
+        <v>0.01575633045254556</v>
       </c>
       <c r="D48">
-        <v>0.01343737698880341</v>
+        <v>-0.0001039141155744259</v>
       </c>
       <c r="E48">
-        <v>0.01140036188958514</v>
+        <v>0.001452691894971989</v>
       </c>
       <c r="F48">
-        <v>0.03101632907716594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.004132336368473669</v>
+      </c>
+      <c r="G48">
+        <v>-0.01257408051069513</v>
+      </c>
+      <c r="H48">
+        <v>0.01711243544089704</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07357490099985706</v>
+        <v>-0.058551359780983</v>
       </c>
       <c r="C50">
-        <v>-0.04677107201581408</v>
+        <v>0.06298993376473824</v>
       </c>
       <c r="D50">
-        <v>0.02909996700663043</v>
+        <v>-0.007098299730898437</v>
       </c>
       <c r="E50">
-        <v>0.02013067602486919</v>
+        <v>0.0208990239707663</v>
       </c>
       <c r="F50">
-        <v>0.02050558343443221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.00640377116103106</v>
+      </c>
+      <c r="G50">
+        <v>-0.006023294458820514</v>
+      </c>
+      <c r="H50">
+        <v>-0.0188260894781175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01408165429682189</v>
+        <v>-0.01295374546215872</v>
       </c>
       <c r="C51">
-        <v>-0.0009350833084118754</v>
+        <v>0.01584110931981053</v>
       </c>
       <c r="D51">
-        <v>-0.005343964889930767</v>
+        <v>0.005279387638874085</v>
       </c>
       <c r="E51">
-        <v>0.008581127630267988</v>
+        <v>0.006143001068006678</v>
       </c>
       <c r="F51">
-        <v>0.09304652438757731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0115282676046205</v>
+      </c>
+      <c r="G51">
+        <v>-0.02706093318634862</v>
+      </c>
+      <c r="H51">
+        <v>0.04498761688535395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07470010591082805</v>
+        <v>-0.07178378068131726</v>
       </c>
       <c r="C53">
-        <v>-0.06968625464381048</v>
+        <v>0.1063380162468763</v>
       </c>
       <c r="D53">
-        <v>0.04101631934255632</v>
+        <v>-0.008414936005558503</v>
       </c>
       <c r="E53">
-        <v>0.05316020345591378</v>
+        <v>0.01374960645491507</v>
       </c>
       <c r="F53">
-        <v>-0.03145984412729823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02601080470028755</v>
+      </c>
+      <c r="G53">
+        <v>0.004817104347388612</v>
+      </c>
+      <c r="H53">
+        <v>-0.03941009900335247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02599663838911991</v>
+        <v>-0.02370052147616247</v>
       </c>
       <c r="C54">
-        <v>-0.006347068167456924</v>
+        <v>0.0005314322690434323</v>
       </c>
       <c r="D54">
-        <v>-0.002309130809040035</v>
+        <v>-0.007080530322866154</v>
       </c>
       <c r="E54">
-        <v>0.02253097274436648</v>
+        <v>0.007365775959733232</v>
       </c>
       <c r="F54">
-        <v>0.02908711934965535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01768994312503055</v>
+      </c>
+      <c r="G54">
+        <v>-0.02906232961608745</v>
+      </c>
+      <c r="H54">
+        <v>0.004323296295921756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07128937117046812</v>
+        <v>-0.05179077979355219</v>
       </c>
       <c r="C55">
-        <v>-0.06054215299946866</v>
+        <v>0.09458255961899148</v>
       </c>
       <c r="D55">
-        <v>0.04717631945402163</v>
+        <v>-0.006060665106883157</v>
       </c>
       <c r="E55">
-        <v>0.03490071486119285</v>
+        <v>0.01349945254669627</v>
       </c>
       <c r="F55">
-        <v>-0.03378882565476966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.006123410933665406</v>
+      </c>
+      <c r="G55">
+        <v>-0.0007507046753397477</v>
+      </c>
+      <c r="H55">
+        <v>-0.0411978250314017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1033085736671412</v>
+        <v>-0.09660454504004205</v>
       </c>
       <c r="C56">
-        <v>-0.1017592917629178</v>
+        <v>0.136364561163616</v>
       </c>
       <c r="D56">
-        <v>0.02232359761780962</v>
+        <v>-0.0167753515844855</v>
       </c>
       <c r="E56">
-        <v>0.08230774673312176</v>
+        <v>0.01842667872206722</v>
       </c>
       <c r="F56">
-        <v>-0.05465473696218853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05026447051321271</v>
+      </c>
+      <c r="G56">
+        <v>0.0140372925959926</v>
+      </c>
+      <c r="H56">
+        <v>-0.08176726340212236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.02694626480329822</v>
+        <v>-0.02287968799023878</v>
       </c>
       <c r="C57">
-        <v>-0.03187415103919371</v>
+        <v>0.03011243161620757</v>
       </c>
       <c r="D57">
-        <v>0.01706009634377421</v>
+        <v>0.02284138661780296</v>
       </c>
       <c r="E57">
-        <v>-0.02986594324199923</v>
+        <v>-0.01108630388242122</v>
       </c>
       <c r="F57">
-        <v>0.05317183332362108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03662420916095584</v>
+      </c>
+      <c r="G57">
+        <v>-0.03866148988556413</v>
+      </c>
+      <c r="H57">
+        <v>0.05844355285232109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09967145721276466</v>
+        <v>-0.085406892103573</v>
       </c>
       <c r="C58">
-        <v>-0.246563623981031</v>
+        <v>0.1855414603943858</v>
       </c>
       <c r="D58">
-        <v>0.1951692761200715</v>
+        <v>0.006882848277313792</v>
       </c>
       <c r="E58">
-        <v>-0.002520245676410913</v>
+        <v>-0.3710718600775161</v>
       </c>
       <c r="F58">
-        <v>0.588687028186083</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.6326066388446231</v>
+      </c>
+      <c r="G58">
+        <v>-0.5681562911901034</v>
+      </c>
+      <c r="H58">
+        <v>-0.1633539740525687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05150155682650334</v>
+        <v>-0.2106402243700309</v>
       </c>
       <c r="C59">
-        <v>-0.04493960457556355</v>
+        <v>-0.1648925560940082</v>
       </c>
       <c r="D59">
-        <v>-0.1877535052316032</v>
+        <v>-0.03595309456617692</v>
       </c>
       <c r="E59">
-        <v>-0.04640319110641447</v>
+        <v>-0.01099645796319835</v>
       </c>
       <c r="F59">
-        <v>0.07834800030124592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01062746171632681</v>
+      </c>
+      <c r="G59">
+        <v>-0.01117536959460987</v>
+      </c>
+      <c r="H59">
+        <v>0.0180187582614028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09833549810141179</v>
+        <v>-0.2209945513129903</v>
       </c>
       <c r="C60">
-        <v>-0.1369880122079511</v>
+        <v>0.07367168698719205</v>
       </c>
       <c r="D60">
-        <v>-0.01767403434794019</v>
+        <v>-0.01039682802431371</v>
       </c>
       <c r="E60">
-        <v>-0.02381688954557086</v>
+        <v>-0.06075099143214545</v>
       </c>
       <c r="F60">
-        <v>0.1808159073666991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1132977235113601</v>
+      </c>
+      <c r="G60">
+        <v>-0.03720911695207179</v>
+      </c>
+      <c r="H60">
+        <v>0.3903254338085148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0188090473918401</v>
+        <v>-0.01301091639348998</v>
       </c>
       <c r="C61">
-        <v>-0.01490230995858601</v>
+        <v>0.06203347476277408</v>
       </c>
       <c r="D61">
-        <v>0.04048639122403187</v>
+        <v>0.003768938083841884</v>
       </c>
       <c r="E61">
-        <v>0.007692089351227974</v>
+        <v>0.003897772057303823</v>
       </c>
       <c r="F61">
-        <v>0.02038536092680393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.009663769722264619</v>
+      </c>
+      <c r="G61">
+        <v>-0.01966163042971943</v>
+      </c>
+      <c r="H61">
+        <v>0.05768602687754168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01546897701673367</v>
+        <v>-0.007753688072448954</v>
       </c>
       <c r="C63">
-        <v>-0.00731226871580937</v>
+        <v>0.02296472653432749</v>
       </c>
       <c r="D63">
-        <v>0.01875142503017213</v>
+        <v>0.006988525956504487</v>
       </c>
       <c r="E63">
-        <v>0.004236392651139288</v>
+        <v>0.009658038116349769</v>
       </c>
       <c r="F63">
-        <v>0.0005787937738626668</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0008153021949239809</v>
+      </c>
+      <c r="G63">
+        <v>-0.0115801737750164</v>
+      </c>
+      <c r="H63">
+        <v>0.01034707271475707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03609015634307606</v>
+        <v>-0.03464941067598679</v>
       </c>
       <c r="C64">
-        <v>-0.01206986826807267</v>
+        <v>0.04416905528773396</v>
       </c>
       <c r="D64">
-        <v>0.02350260894381676</v>
+        <v>0.001883341471678071</v>
       </c>
       <c r="E64">
-        <v>0.02214851035399921</v>
+        <v>0.01853357106654376</v>
       </c>
       <c r="F64">
-        <v>0.006950037427114885</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01215310596341274</v>
+      </c>
+      <c r="G64">
+        <v>0.01163955170240299</v>
+      </c>
+      <c r="H64">
+        <v>0.03740415555243336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03395541551564225</v>
+        <v>-0.03971778088091049</v>
       </c>
       <c r="C65">
-        <v>-0.02444273238289873</v>
+        <v>0.0834320650394412</v>
       </c>
       <c r="D65">
-        <v>0.0392753102164838</v>
+        <v>0.01417014642545939</v>
       </c>
       <c r="E65">
-        <v>0.03067856794336886</v>
+        <v>0.007623177745517176</v>
       </c>
       <c r="F65">
-        <v>0.01401564048061721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04149466377457569</v>
+      </c>
+      <c r="G65">
+        <v>-0.02276523365179752</v>
+      </c>
+      <c r="H65">
+        <v>0.06590516294235253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02316340525960053</v>
+        <v>-0.01246018156658972</v>
       </c>
       <c r="C66">
-        <v>-0.03606826044039901</v>
+        <v>0.1168275933540632</v>
       </c>
       <c r="D66">
-        <v>0.05945489762473267</v>
+        <v>0.009879517682539521</v>
       </c>
       <c r="E66">
-        <v>0.05196680577841929</v>
+        <v>-0.008535261367946531</v>
       </c>
       <c r="F66">
-        <v>0.03040463326240345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03229238802968866</v>
+      </c>
+      <c r="G66">
+        <v>-0.03637294739027651</v>
+      </c>
+      <c r="H66">
+        <v>0.08456217976258899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01751021672222508</v>
+        <v>-0.04893560614885267</v>
       </c>
       <c r="C67">
-        <v>-0.0218302040323865</v>
+        <v>0.02964993001725773</v>
       </c>
       <c r="D67">
-        <v>-0.01045025568087739</v>
+        <v>-0.01097651360181568</v>
       </c>
       <c r="E67">
-        <v>-0.01297235017647131</v>
+        <v>-0.00102422610308839</v>
       </c>
       <c r="F67">
-        <v>0.02721827274233755</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01255456327269838</v>
+      </c>
+      <c r="G67">
+        <v>-0.01587675462086512</v>
+      </c>
+      <c r="H67">
+        <v>0.03334909524869489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06530649975770862</v>
+        <v>-0.2076533790451049</v>
       </c>
       <c r="C68">
-        <v>-0.04287892752713074</v>
+        <v>-0.2049096884810082</v>
       </c>
       <c r="D68">
-        <v>-0.2088831531426498</v>
+        <v>-0.01762371032631618</v>
       </c>
       <c r="E68">
-        <v>-0.05234920391887848</v>
+        <v>-0.01046762285999278</v>
       </c>
       <c r="F68">
-        <v>0.07492057861556883</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.06072413403513629</v>
+      </c>
+      <c r="G68">
+        <v>-0.001084041020567212</v>
+      </c>
+      <c r="H68">
+        <v>-0.0367258664910694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05038507928890871</v>
+        <v>-0.05596751555465512</v>
       </c>
       <c r="C69">
-        <v>-0.05085596193761253</v>
+        <v>0.06208209641224841</v>
       </c>
       <c r="D69">
-        <v>0.01041227342105007</v>
+        <v>-0.01313315906729858</v>
       </c>
       <c r="E69">
-        <v>0.03876132137463899</v>
+        <v>0.009591853389715462</v>
       </c>
       <c r="F69">
-        <v>0.00568949619993158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02555101197181179</v>
+      </c>
+      <c r="G69">
+        <v>-0.004847967259118017</v>
+      </c>
+      <c r="H69">
+        <v>-0.002779750968911207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06786687784558336</v>
+        <v>-0.1831055799852707</v>
       </c>
       <c r="C71">
-        <v>-0.05089318207123592</v>
+        <v>-0.1596428557966553</v>
       </c>
       <c r="D71">
-        <v>-0.2136313468273037</v>
+        <v>-0.02086719635314378</v>
       </c>
       <c r="E71">
-        <v>-0.09316429577971018</v>
+        <v>-0.01221992298843746</v>
       </c>
       <c r="F71">
-        <v>0.07895971505766541</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06742656764794104</v>
+      </c>
+      <c r="G71">
+        <v>0.004423282163877865</v>
+      </c>
+      <c r="H71">
+        <v>-0.01419706462171815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07935100486797782</v>
+        <v>-0.055344260700261</v>
       </c>
       <c r="C72">
-        <v>-0.1010880102782788</v>
+        <v>0.1133985920407387</v>
       </c>
       <c r="D72">
-        <v>0.06919678826638333</v>
+        <v>-0.01188677074717306</v>
       </c>
       <c r="E72">
-        <v>0.08117140609766769</v>
+        <v>-0.01700180345984002</v>
       </c>
       <c r="F72">
-        <v>0.09301964925657044</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04685644773844158</v>
+      </c>
+      <c r="G72">
+        <v>-0.05214925380651911</v>
+      </c>
+      <c r="H72">
+        <v>0.09312778573301413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1109403789092428</v>
+        <v>-0.2837223683368196</v>
       </c>
       <c r="C73">
-        <v>-0.2055199665741462</v>
+        <v>0.1532513042013309</v>
       </c>
       <c r="D73">
-        <v>-0.01822139214530624</v>
+        <v>-0.005969694060659641</v>
       </c>
       <c r="E73">
-        <v>-0.06379295240397131</v>
+        <v>-0.09614671022086156</v>
       </c>
       <c r="F73">
-        <v>0.2186876459652622</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1435654584583721</v>
+      </c>
+      <c r="G73">
+        <v>-0.02827852013837407</v>
+      </c>
+      <c r="H73">
+        <v>0.4942655903694628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09709357256251802</v>
+        <v>-0.09526169120648725</v>
       </c>
       <c r="C74">
-        <v>-0.09500378933727191</v>
+        <v>0.1390403638297456</v>
       </c>
       <c r="D74">
-        <v>0.02789746101865253</v>
+        <v>-0.01653467319041995</v>
       </c>
       <c r="E74">
-        <v>0.05881822253035477</v>
+        <v>0.01775708953944919</v>
       </c>
       <c r="F74">
-        <v>-0.07508593384379313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03428574824891281</v>
+      </c>
+      <c r="G74">
+        <v>0.004799333419718244</v>
+      </c>
+      <c r="H74">
+        <v>-0.05850552852397673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1655635009408893</v>
+        <v>-0.2003099328282773</v>
       </c>
       <c r="C75">
-        <v>-0.1831304407100875</v>
+        <v>0.234037966000798</v>
       </c>
       <c r="D75">
-        <v>0.0171755119231396</v>
+        <v>-0.03809126822345274</v>
       </c>
       <c r="E75">
-        <v>0.169099291529001</v>
+        <v>0.01628854717739835</v>
       </c>
       <c r="F75">
-        <v>-0.1077954362876858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09733934911120158</v>
+      </c>
+      <c r="G75">
+        <v>0.007266815746119809</v>
+      </c>
+      <c r="H75">
+        <v>-0.1742604727734503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2231354059129792</v>
+        <v>-0.1490455097471145</v>
       </c>
       <c r="C76">
-        <v>-0.1883919736094942</v>
+        <v>0.205303409873095</v>
       </c>
       <c r="D76">
-        <v>0.03192897233371404</v>
+        <v>-0.03209895461696789</v>
       </c>
       <c r="E76">
-        <v>0.185760749163004</v>
+        <v>0.05884630685591283</v>
       </c>
       <c r="F76">
-        <v>-0.2068282309378736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08202582971616852</v>
+      </c>
+      <c r="G76">
+        <v>0.02064534555544908</v>
+      </c>
+      <c r="H76">
+        <v>-0.1535689618681861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07372000439496941</v>
+        <v>-0.04436506079029705</v>
       </c>
       <c r="C77">
-        <v>-0.09059908184695133</v>
+        <v>0.08893260877112531</v>
       </c>
       <c r="D77">
-        <v>0.06566508600957922</v>
+        <v>0.01154200731375543</v>
       </c>
       <c r="E77">
-        <v>-0.02267289083824175</v>
+        <v>-0.01314691822453752</v>
       </c>
       <c r="F77">
-        <v>0.1009021925763868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04387180940589126</v>
+      </c>
+      <c r="G77">
+        <v>-0.02624397158527017</v>
+      </c>
+      <c r="H77">
+        <v>0.009492436109542887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04666510990675922</v>
+        <v>-0.0211200404774706</v>
       </c>
       <c r="C78">
-        <v>-0.03909373785297923</v>
+        <v>0.07649193619814218</v>
       </c>
       <c r="D78">
-        <v>0.1011704717743812</v>
+        <v>0.005666540529509155</v>
       </c>
       <c r="E78">
-        <v>0.03542008455950494</v>
+        <v>0.001417092759882875</v>
       </c>
       <c r="F78">
-        <v>0.07264756734028503</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.004488185273895023</v>
+      </c>
+      <c r="G78">
+        <v>-0.04165662181254526</v>
+      </c>
+      <c r="H78">
+        <v>0.08696123595348451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.7436595572611658</v>
+        <v>-0.09812561990369013</v>
       </c>
       <c r="C80">
-        <v>0.6417574023706458</v>
+        <v>0.09910836067675365</v>
       </c>
       <c r="D80">
-        <v>0.07691603514983825</v>
+        <v>0.001457695880145845</v>
       </c>
       <c r="E80">
-        <v>-0.0460489985740484</v>
+        <v>0.8849945969929198</v>
       </c>
       <c r="F80">
-        <v>0.05975610656827975</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.378578260487611</v>
+      </c>
+      <c r="G80">
+        <v>-0.08862779085770357</v>
+      </c>
+      <c r="H80">
+        <v>0.09228934517616871</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1415070288878169</v>
+        <v>-0.1292181548364071</v>
       </c>
       <c r="C81">
-        <v>-0.1364240967018073</v>
+        <v>0.1480613718942307</v>
       </c>
       <c r="D81">
-        <v>0.007637942241980067</v>
+        <v>-0.02360100603354374</v>
       </c>
       <c r="E81">
-        <v>0.1301409540572127</v>
+        <v>0.02686742425723814</v>
       </c>
       <c r="F81">
-        <v>-0.09149362324984615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05441246864381934</v>
+      </c>
+      <c r="G81">
+        <v>0.008927293381479259</v>
+      </c>
+      <c r="H81">
+        <v>-0.1079303742135866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02079903416751124</v>
+        <v>-0.02063766535589869</v>
       </c>
       <c r="C83">
-        <v>-0.02721420052379595</v>
+        <v>0.02370207801869819</v>
       </c>
       <c r="D83">
-        <v>0.02016914778670036</v>
+        <v>0.003653731937954886</v>
       </c>
       <c r="E83">
-        <v>-0.01527726813633226</v>
+        <v>-0.006210316145558334</v>
       </c>
       <c r="F83">
-        <v>0.04795529529731022</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01876486374565471</v>
+      </c>
+      <c r="G83">
+        <v>-0.02172562059118642</v>
+      </c>
+      <c r="H83">
+        <v>0.04489268059015623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1826810724821145</v>
+        <v>-0.1792217308181187</v>
       </c>
       <c r="C85">
-        <v>-0.1882915383672001</v>
+        <v>0.2227849292475475</v>
       </c>
       <c r="D85">
-        <v>0.03079775575541899</v>
+        <v>-0.02288312039365662</v>
       </c>
       <c r="E85">
-        <v>0.169633148578703</v>
+        <v>0.01964845466903006</v>
       </c>
       <c r="F85">
-        <v>-0.1465619266484014</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1175773570300569</v>
+      </c>
+      <c r="G85">
+        <v>0.04481376616825584</v>
+      </c>
+      <c r="H85">
+        <v>-0.1131261739434632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007109543162667432</v>
+        <v>-0.01038067659668686</v>
       </c>
       <c r="C86">
-        <v>-0.0001121980257864481</v>
+        <v>0.03400574372900855</v>
       </c>
       <c r="D86">
-        <v>0.06654701730431703</v>
+        <v>0.007811031345402517</v>
       </c>
       <c r="E86">
-        <v>-0.003886299901773357</v>
+        <v>0.002992125466210333</v>
       </c>
       <c r="F86">
-        <v>0.03856460495685349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02793377458938671</v>
+      </c>
+      <c r="G86">
+        <v>-0.01115723590277134</v>
+      </c>
+      <c r="H86">
+        <v>0.06822005148230945</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02419773166349347</v>
+        <v>-0.005249111697058997</v>
       </c>
       <c r="C87">
-        <v>-0.02150662654294494</v>
+        <v>0.03967666206382976</v>
       </c>
       <c r="D87">
-        <v>0.03956553725734362</v>
+        <v>0.009715702362886134</v>
       </c>
       <c r="E87">
-        <v>0.005985005394801588</v>
+        <v>-0.006444232843748293</v>
       </c>
       <c r="F87">
-        <v>0.09431614076615476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03368025058520841</v>
+      </c>
+      <c r="G87">
+        <v>-0.0507232091151963</v>
+      </c>
+      <c r="H87">
+        <v>0.08011472439434261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01807780341051242</v>
+        <v>-0.04153023234797554</v>
       </c>
       <c r="C88">
-        <v>0.001199032243339663</v>
+        <v>0.01717062518601135</v>
       </c>
       <c r="D88">
-        <v>-0.0009757283325782204</v>
+        <v>0.01717006116420949</v>
       </c>
       <c r="E88">
-        <v>0.00833699791535919</v>
+        <v>0.02454167408524341</v>
       </c>
       <c r="F88">
-        <v>-0.02191874707527335</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01964867706416983</v>
+      </c>
+      <c r="G88">
+        <v>-0.0005522725942845198</v>
+      </c>
+      <c r="H88">
+        <v>0.005189320812992594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09013904781553213</v>
+        <v>-0.3238331071244479</v>
       </c>
       <c r="C89">
-        <v>-0.0731503101109655</v>
+        <v>-0.287218265131818</v>
       </c>
       <c r="D89">
-        <v>-0.3487652238915424</v>
+        <v>-0.03723984370654036</v>
       </c>
       <c r="E89">
-        <v>-0.05995448869947059</v>
+        <v>-0.009582559699259394</v>
       </c>
       <c r="F89">
-        <v>0.08368284464240143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.006218595113170676</v>
+      </c>
+      <c r="G89">
+        <v>0.02531647351905849</v>
+      </c>
+      <c r="H89">
+        <v>-0.01675149449084158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08230515142442606</v>
+        <v>-0.268341269000518</v>
       </c>
       <c r="C90">
-        <v>-0.03584011742437394</v>
+        <v>-0.2638594627957891</v>
       </c>
       <c r="D90">
-        <v>-0.3521076272191027</v>
+        <v>-0.03455366417243124</v>
       </c>
       <c r="E90">
-        <v>-0.08083506163338096</v>
+        <v>-0.003045383975107659</v>
       </c>
       <c r="F90">
-        <v>0.03716870338505143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05531313325154425</v>
+      </c>
+      <c r="G90">
+        <v>0.01941162994878655</v>
+      </c>
+      <c r="H90">
+        <v>-0.06058652341823145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2093911979570174</v>
+        <v>-0.1919171189763012</v>
       </c>
       <c r="C91">
-        <v>-0.2382052501752553</v>
+        <v>0.2122162786573869</v>
       </c>
       <c r="D91">
-        <v>0.03847100933032561</v>
+        <v>-0.03605031300153886</v>
       </c>
       <c r="E91">
-        <v>0.1516318543964761</v>
+        <v>0.0123970752408994</v>
       </c>
       <c r="F91">
-        <v>-0.2238939660401932</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.09398945725019077</v>
+      </c>
+      <c r="G91">
+        <v>0.04092722110743197</v>
+      </c>
+      <c r="H91">
+        <v>-0.1942796129838745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1382295715991453</v>
+        <v>-0.2815522541241873</v>
       </c>
       <c r="C92">
-        <v>-0.1080292364817909</v>
+        <v>-0.172994036088512</v>
       </c>
       <c r="D92">
-        <v>-0.4418969715481018</v>
+        <v>-0.07452543374206183</v>
       </c>
       <c r="E92">
-        <v>0.01589963164473008</v>
+        <v>0.004178611046779577</v>
       </c>
       <c r="F92">
-        <v>-0.126984335688143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04377678380799224</v>
+      </c>
+      <c r="G92">
+        <v>-0.01350186436217649</v>
+      </c>
+      <c r="H92">
+        <v>-0.1536941118990875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.075640913130623</v>
+        <v>-0.3021309926284761</v>
       </c>
       <c r="C93">
-        <v>-0.0817305416085293</v>
+        <v>-0.2596553392577363</v>
       </c>
       <c r="D93">
-        <v>-0.4116260733389818</v>
+        <v>-0.04396841684000032</v>
       </c>
       <c r="E93">
-        <v>-0.133254529673298</v>
+        <v>-0.03396855701887299</v>
       </c>
       <c r="F93">
-        <v>0.04995641323413178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03801500410347741</v>
+      </c>
+      <c r="G93">
+        <v>0.03528990625633738</v>
+      </c>
+      <c r="H93">
+        <v>0.008007278050924074</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.194015050150754</v>
+        <v>-0.2346207713730138</v>
       </c>
       <c r="C94">
-        <v>-0.232064799938859</v>
+        <v>0.2336958495881538</v>
       </c>
       <c r="D94">
-        <v>0.03208834559670506</v>
+        <v>-0.02595455960445143</v>
       </c>
       <c r="E94">
-        <v>0.2287237685874342</v>
+        <v>0.007933449850265908</v>
       </c>
       <c r="F94">
-        <v>-0.1445800976152652</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2028239033967129</v>
+      </c>
+      <c r="G94">
+        <v>0.03241401941815867</v>
+      </c>
+      <c r="H94">
+        <v>-0.4027639967767955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.003110551481917144</v>
+        <v>-0.03132055118795264</v>
       </c>
       <c r="C95">
-        <v>-0.09148829593182478</v>
+        <v>0.1025875721448463</v>
       </c>
       <c r="D95">
-        <v>0.02922405311469625</v>
+        <v>-0.007386073648406577</v>
       </c>
       <c r="E95">
-        <v>0.02062306154935564</v>
+        <v>-0.08980481988076738</v>
       </c>
       <c r="F95">
-        <v>0.01005056730587373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02423948674092282</v>
+      </c>
+      <c r="G95">
+        <v>-0.02342448251330412</v>
+      </c>
+      <c r="H95">
+        <v>0.03784126986800489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.09674299138020255</v>
+        <v>-0.1853086229040319</v>
       </c>
       <c r="C98">
-        <v>-0.1372215928988024</v>
+        <v>0.06929151529381614</v>
       </c>
       <c r="D98">
-        <v>-0.02866602577179055</v>
+        <v>-0.03243580739246934</v>
       </c>
       <c r="E98">
-        <v>-0.07765117008193269</v>
+        <v>-0.07001999571821904</v>
       </c>
       <c r="F98">
-        <v>0.1865149345300729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01629089718178211</v>
+      </c>
+      <c r="G98">
+        <v>-0.02881922182669852</v>
+      </c>
+      <c r="H98">
+        <v>0.3401627112450568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009631122451995546</v>
+        <v>-0.006354819014826945</v>
       </c>
       <c r="C101">
-        <v>0.0009707037478627289</v>
+        <v>0.01825422113893273</v>
       </c>
       <c r="D101">
-        <v>0.04938411089905788</v>
+        <v>0.00632402047491346</v>
       </c>
       <c r="E101">
-        <v>0.02167666547029697</v>
+        <v>-0.003843332472317992</v>
       </c>
       <c r="F101">
-        <v>0.1728058745117438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0431121796810495</v>
+      </c>
+      <c r="G101">
+        <v>-0.06907350237917835</v>
+      </c>
+      <c r="H101">
+        <v>0.003796138044607759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09026511378352997</v>
+        <v>-0.09428072121036417</v>
       </c>
       <c r="C102">
-        <v>-0.08786005234425839</v>
+        <v>0.1110774901172794</v>
       </c>
       <c r="D102">
-        <v>0.01285606332527452</v>
+        <v>-0.005122939734271184</v>
       </c>
       <c r="E102">
-        <v>0.08827151471516141</v>
+        <v>0.01356294210652122</v>
       </c>
       <c r="F102">
-        <v>-0.09174317366358441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06029893693090213</v>
+      </c>
+      <c r="G102">
+        <v>0.01375721250798539</v>
+      </c>
+      <c r="H102">
+        <v>-0.07063884325077309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04294728903231647</v>
+        <v>-0.01184678890424268</v>
       </c>
       <c r="C103">
-        <v>-0.02597553516499522</v>
+        <v>0.01881790373185884</v>
       </c>
       <c r="D103">
-        <v>0.01798317690171752</v>
+        <v>-0.0008532370015004794</v>
       </c>
       <c r="E103">
-        <v>0.04427139692956519</v>
+        <v>0.01262058378916401</v>
       </c>
       <c r="F103">
-        <v>-0.008605860056021526</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.003372539693357923</v>
+      </c>
+      <c r="G103">
+        <v>-0.007212697500836605</v>
+      </c>
+      <c r="H103">
+        <v>-0.01753216597278414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1142921846831472</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.060183257633282</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9773793830380267</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02535400034708364</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.08849612058594324</v>
+      </c>
+      <c r="G104">
+        <v>-0.0826521492550405</v>
+      </c>
+      <c r="H104">
+        <v>-0.05901500840808597</v>
       </c>
     </row>
   </sheetData>
